--- a/build/jig/business-rule.xlsx
+++ b/build/jig/business-rule.xlsx
@@ -19,23 +19,23 @@
     <sheet name="注意メソッド" r:id="rId13" sheetId="11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">PACKAGE!$A$1:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">ALL!$A$1:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">IDENTIFIER!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="true">ENUM!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">NUMBER!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="true">COLLECTION!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">PACKAGE!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">ALL!$A$1:$B$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">IDENTIFIER!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="true">ENUM!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">NUMBER!$A$1:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="true">COLLECTION!$A$1:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="true">DATE!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="true">TERM!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="true">VALIDATION!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="true">文字列比較箇所!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="true">注意メソッド!$A$1:$K$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="true">注意メソッド!$A$1:$K$46</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="106">
   <si>
     <t/>
   </si>
@@ -55,24 +55,102 @@
     <t>1</t>
   </si>
   <si>
+    <t>warikan.domain.model.members</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>warikan.domain.model.party</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>クラス名</t>
   </si>
   <si>
     <t>クラス別名</t>
   </si>
   <si>
+    <t>members.Member</t>
+  </si>
+  <si>
+    <t>参加者</t>
+  </si>
+  <si>
+    <t>members.MemberName</t>
+  </si>
+  <si>
+    <t>参加者名</t>
+  </si>
+  <si>
+    <t>members.Members</t>
+  </si>
+  <si>
+    <t>メンバーグループ</t>
+  </si>
+  <si>
+    <t>members.Payment</t>
+  </si>
+  <si>
+    <t>支払い金額</t>
+  </si>
+  <si>
+    <t>members.PaymentRatio</t>
+  </si>
+  <si>
+    <t>支払区分</t>
+  </si>
+  <si>
+    <t>members.PaymentService</t>
+  </si>
+  <si>
     <t>Money</t>
   </si>
   <si>
     <t>通貨</t>
   </si>
   <si>
+    <t>party.LittleRatio</t>
+  </si>
+  <si>
+    <t>弱者控除割合</t>
+  </si>
+  <si>
+    <t>party.Party</t>
+  </si>
+  <si>
+    <t>party.PartyDatetime</t>
+  </si>
+  <si>
+    <t>開催日時</t>
+  </si>
+  <si>
+    <t>party.PartyName</t>
+  </si>
+  <si>
+    <t>飲み会名</t>
+  </si>
+  <si>
+    <t>party.TotalPayment</t>
+  </si>
+  <si>
+    <t>請求金額</t>
+  </si>
+  <si>
     <t>使用箇所数</t>
   </si>
   <si>
     <t>使用箇所</t>
   </si>
   <si>
+    <t>[Member]</t>
+  </si>
+  <si>
+    <t>[Party]</t>
+  </si>
+  <si>
     <t>定数宣言</t>
   </si>
   <si>
@@ -88,6 +166,24 @@
     <t>多態</t>
   </si>
   <si>
+    <t>[Much, Mean, Little]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>[Member, Members, Party, PartyService]</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>[Party, PartyService, PaymentService]</t>
+  </si>
+  <si>
     <t>フィールドの型</t>
   </si>
   <si>
@@ -97,6 +193,21 @@
     <t>メソッド一覧</t>
   </si>
   <si>
+    <t>List&lt;Member&gt;</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>[Party, PartyService]</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>[&lt;init&gt;(List):void, addMember(Member):Members, contains(Member):boolean, deleteMember(Member):Members, displayMembers():void, lambda$setPayment$3(Map, Member):Member, lambda$sizeOfLittle$2(Member):boolean, lambda$sizeOfMean$1(Member):boolean, lambda$sizeOfMuch$0(Member):boolean, of(List):Members, setPayment(Map):Members, size():int, sizeOfLittle():long, sizeOfMean():long, sizeOfMuch():long]</t>
+  </si>
+  <si>
     <t>メンバ名</t>
   </si>
   <si>
@@ -154,9 +265,6 @@
     <t>compareTo(Money)</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>divide(double)</t>
   </si>
   <si>
@@ -215,6 +323,36 @@
   </si>
   <si>
     <t>times(long, RoundingMode)</t>
+  </si>
+  <si>
+    <t>contains(Member)</t>
+  </si>
+  <si>
+    <t>displayMembers()</t>
+  </si>
+  <si>
+    <t>size()</t>
+  </si>
+  <si>
+    <t>sizeOfLittle()</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>sizeOfMean()</t>
+  </si>
+  <si>
+    <t>sizeOfMuch()</t>
+  </si>
+  <si>
+    <t>addMember(Member)</t>
+  </si>
+  <si>
+    <t>display()</t>
+  </si>
+  <si>
+    <t>setPayment(Map)</t>
   </si>
 </sst>
 </file>
@@ -259,15 +397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.34375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.87890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.76171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.49609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -292,8 +430,30 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C2"/>
+  <autoFilter ref="A1:C4"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -306,16 +466,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.54296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.49609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -326,78 +486,78 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.35546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.54296875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="12.04296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.30078125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="13.546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.15625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.14453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.07421875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.95703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.61328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.95703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="7.7265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="7.7265625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="8.1953125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="12.1640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="9.93359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -406,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
@@ -417,25 +577,25 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -452,25 +612,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -487,25 +647,25 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -522,25 +682,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -557,25 +717,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -592,25 +752,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -627,16 +787,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -645,10 +805,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
         <v>0</v>
@@ -657,21 +817,21 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -680,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -697,25 +857,25 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
@@ -732,28 +892,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
         <v>0</v>
@@ -767,28 +927,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -802,28 +962,28 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
@@ -837,28 +997,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -872,16 +1032,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -890,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
@@ -907,28 +1067,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s">
         <v>0</v>
@@ -942,25 +1102,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
         <v>0</v>
@@ -977,22 +1137,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
         <v>0</v>
@@ -1012,25 +1172,25 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
         <v>0</v>
@@ -1047,25 +1207,25 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
         <v>0</v>
@@ -1082,25 +1242,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
         <v>0</v>
@@ -1117,25 +1277,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s">
         <v>0</v>
@@ -1150,210 +1310,1197 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>71</v>
+      </c>
+      <c r="J38" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K23"/>
+  <autoFilter ref="A1:K46"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.2109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.40625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.95703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B2"/>
+  <autoFilter ref="A1:B13"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.15625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.61328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.61328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.13671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D3"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="4.7109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.61328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.2890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.61328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.61328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="37.6640625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="9.95703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="7.7265625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="3.26953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:I2"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.45703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.7265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.61328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="34.58203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D2"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.87890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="12.04296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.69140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.95703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.0078125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.61328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="19.2109375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.61328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:G2"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -1366,24 +2513,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.49609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.61328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.61328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="5.49609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1400,24 +2547,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.49609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.61328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.61328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="5.49609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1434,32 +2581,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.87890625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="21.2109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="17.54296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.49609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.61328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.49609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.3046875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/build/jig/business-rule.xlsx
+++ b/build/jig/business-rule.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">PACKAGE!$A$1:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">ALL!$A$1:$B$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">ALL!$A$1:$B$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">IDENTIFIER!$A$1:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="true">ENUM!$A$1:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">NUMBER!$A$1:$D$2</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="109">
   <si>
     <t/>
   </si>
@@ -64,9 +64,6 @@
     <t>warikan.domain.model.party</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>クラス名</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
     <t>members.PaymentService</t>
   </si>
   <si>
+    <t>支払金額を計算するDomainService</t>
+  </si>
+  <si>
     <t>Money</t>
   </si>
   <si>
@@ -121,6 +121,9 @@
     <t>party.Party</t>
   </si>
   <si>
+    <t>飲み会</t>
+  </si>
+  <si>
     <t>party.PartyDatetime</t>
   </si>
   <si>
@@ -131,6 +134,12 @@
   </si>
   <si>
     <t>飲み会名</t>
+  </si>
+  <si>
+    <t>party.PartyService</t>
+  </si>
+  <si>
+    <t>割り勘するDomainService</t>
   </si>
   <si>
     <t>party.TotalPayment</t>
@@ -449,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -472,10 +481,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -507,37 +516,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
@@ -545,10 +554,10 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -557,7 +566,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -566,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
@@ -580,22 +589,22 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -615,22 +624,22 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -650,7 +659,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -659,13 +668,13 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -685,7 +694,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -694,13 +703,13 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -720,7 +729,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -729,13 +738,13 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -755,7 +764,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -764,13 +773,13 @@
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -790,10 +799,10 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -805,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
         <v>0</v>
@@ -817,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -825,10 +834,10 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -840,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -860,22 +869,22 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
@@ -895,25 +904,25 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
         <v>84</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
         <v>0</v>
@@ -930,25 +939,25 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -965,25 +974,25 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
@@ -1000,25 +1009,25 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -1035,10 +1044,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -1050,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
@@ -1070,25 +1079,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
         <v>0</v>
@@ -1105,7 +1114,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
@@ -1114,13 +1123,13 @@
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s">
         <v>0</v>
@@ -1140,7 +1149,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -1149,10 +1158,10 @@
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
         <v>0</v>
@@ -1175,7 +1184,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -1184,13 +1193,13 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s">
         <v>0</v>
@@ -1210,7 +1219,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -1219,13 +1228,13 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
         <v>0</v>
@@ -1245,7 +1254,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -1257,10 +1266,10 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s">
         <v>0</v>
@@ -1280,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -1289,13 +1298,13 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s">
         <v>0</v>
@@ -1312,28 +1321,28 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="B24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s">
         <v>0</v>
@@ -1342,30 +1351,30 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s">
         <v>0</v>
@@ -1382,28 +1391,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s">
         <v>0</v>
@@ -1412,30 +1421,30 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
         <v>14</v>
       </c>
-      <c r="B27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s">
         <v>0</v>
@@ -1452,28 +1461,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s">
         <v>0</v>
@@ -1487,16 +1496,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
         <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
       </c>
       <c r="E29" t="s">
         <v>5</v>
@@ -1511,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s">
         <v>0</v>
@@ -1522,25 +1531,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s">
         <v>0</v>
@@ -1557,16 +1566,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" t="s">
         <v>16</v>
-      </c>
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
       </c>
       <c r="E31" t="s">
         <v>5</v>
@@ -1575,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s">
         <v>0</v>
@@ -1592,16 +1601,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
         <v>16</v>
-      </c>
-      <c r="B32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" t="s">
-        <v>17</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
@@ -1610,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s">
         <v>0</v>
@@ -1627,16 +1636,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
         <v>16</v>
-      </c>
-      <c r="B33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" t="s">
-        <v>17</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
@@ -1645,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s">
         <v>0</v>
@@ -1662,25 +1671,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
         <v>18</v>
       </c>
-      <c r="B34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s">
         <v>0</v>
@@ -1700,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I35" t="s">
         <v>0</v>
@@ -1727,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
@@ -1735,22 +1744,22 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s">
         <v>0</v>
@@ -1770,16 +1779,16 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -1791,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s">
         <v>0</v>
@@ -1805,16 +1814,16 @@
         <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
@@ -1826,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J38" t="s">
         <v>0</v>
@@ -1840,13 +1849,13 @@
         <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E39" t="s">
         <v>5</v>
@@ -1861,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s">
         <v>0</v>
@@ -1872,28 +1881,28 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s">
         <v>0</v>
@@ -1902,30 +1911,30 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s">
         <v>0</v>
@@ -1942,28 +1951,28 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s">
         <v>0</v>
@@ -1972,30 +1981,30 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s">
         <v>0</v>
@@ -2012,16 +2021,16 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
         <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E44" t="s">
         <v>5</v>
@@ -2030,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s">
         <v>0</v>
@@ -2047,28 +2056,28 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E45" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I45" t="s">
         <v>0</v>
@@ -2077,30 +2086,30 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s">
         <v>0</v>
@@ -2123,70 +2132,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="24.40625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.95703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2210,35 +2219,43 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B13"/>
+  <autoFilter ref="A1:B14"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -2259,44 +2276,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2326,51 +2343,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -2404,16 +2421,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -2424,10 +2441,10 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2455,48 +2472,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2521,16 +2538,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2555,16 +2572,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2591,22 +2608,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/build/jig/business-rule.xlsx
+++ b/build/jig/business-rule.xlsx
@@ -29,13 +29,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="true">TERM!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="true">VALIDATION!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="true">文字列比較箇所!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="true">注意メソッド!$A$1:$K$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="true">注意メソッド!$A$1:$K$44</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="107">
   <si>
     <t/>
   </si>
@@ -214,7 +214,7 @@
     <t>15</t>
   </si>
   <si>
-    <t>[&lt;init&gt;(List):void, addMember(Member):Members, contains(Member):boolean, deleteMember(Member):Members, displayMembers():void, lambda$setPayment$3(Map, Member):Member, lambda$sizeOfLittle$2(Member):boolean, lambda$sizeOfMean$1(Member):boolean, lambda$sizeOfMuch$0(Member):boolean, of(List):Members, setPayment(Map):Members, size():int, sizeOfLittle():long, sizeOfMean():long, sizeOfMuch():long]</t>
+    <t>[&lt;init&gt;(List):void, addMember(Member):Members, contains(Member):boolean, deleteMember(Member):Members, displayMembers():void, lambda$sizeOfLittle$2(Member):boolean, lambda$sizeOfMean$1(Member):boolean, lambda$sizeOfMuch$0(Member):boolean, lambda$updatePayment$3(Map, Member):Member, of(List):Members, size():int, sizeOfLittle():long, sizeOfMean():long, sizeOfMuch():long, updatePayment(Map):Members]</t>
   </si>
   <si>
     <t>メンバ名</t>
@@ -355,13 +355,7 @@
     <t>sizeOfMuch()</t>
   </si>
   <si>
-    <t>addMember(Member)</t>
-  </si>
-  <si>
     <t>display()</t>
-  </si>
-  <si>
-    <t>setPayment(Map)</t>
   </si>
 </sst>
 </file>
@@ -495,7 +489,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1811,16 +1805,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
         <v>77</v>
@@ -1829,48 +1823,48 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s">
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>0</v>
@@ -1881,7 +1875,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
         <v>83</v>
@@ -1890,7 +1884,7 @@
         <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E40" t="s">
         <v>77</v>
@@ -1916,7 +1910,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
         <v>86</v>
@@ -1925,7 +1919,7 @@
         <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E41" t="s">
         <v>77</v>
@@ -1951,19 +1945,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="F42" t="s">
         <v>0</v>
@@ -1972,7 +1966,7 @@
         <v>74</v>
       </c>
       <c r="H42" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="I42" t="s">
         <v>0</v>
@@ -1981,21 +1975,21 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E43" t="s">
         <v>77</v>
@@ -2007,7 +2001,7 @@
         <v>74</v>
       </c>
       <c r="H43" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="I43" t="s">
         <v>0</v>
@@ -2016,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
@@ -2024,16 +2018,16 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
         <v>36</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -2054,78 +2048,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45" t="s">
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
-        <v>74</v>
-      </c>
-      <c r="H45" t="s">
-        <v>74</v>
-      </c>
-      <c r="I45" t="s">
-        <v>0</v>
-      </c>
-      <c r="J45" t="s">
-        <v>0</v>
-      </c>
-      <c r="K45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" t="s">
-        <v>77</v>
-      </c>
-      <c r="F46" t="s">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>74</v>
-      </c>
-      <c r="H46" t="s">
-        <v>0</v>
-      </c>
-      <c r="I46" t="s">
-        <v>0</v>
-      </c>
-      <c r="J46" t="s">
-        <v>0</v>
-      </c>
-      <c r="K46" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K46"/>
+  <autoFilter ref="A1:K44"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
